--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N2">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O2">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P2">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q2">
-        <v>22.03114151372866</v>
+        <v>42.17379425476211</v>
       </c>
       <c r="R2">
-        <v>198.280273623558</v>
+        <v>379.564148292859</v>
       </c>
       <c r="S2">
-        <v>0.03445097104530032</v>
+        <v>0.07217999556274196</v>
       </c>
       <c r="T2">
-        <v>0.03445097104530032</v>
+        <v>0.07217999556274195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q3">
-        <v>30.460069189445</v>
+        <v>52.37122439995166</v>
       </c>
       <c r="R3">
-        <v>274.140622705005</v>
+        <v>471.341019599565</v>
       </c>
       <c r="S3">
-        <v>0.04763162004245199</v>
+        <v>0.08963278764933588</v>
       </c>
       <c r="T3">
-        <v>0.04763162004245198</v>
+        <v>0.08963278764933587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H4">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I4">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J4">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N4">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O4">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P4">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q4">
-        <v>7.800867944274999</v>
+        <v>20.43404723466755</v>
       </c>
       <c r="R4">
-        <v>70.207811498475</v>
+        <v>183.906425112008</v>
       </c>
       <c r="S4">
-        <v>0.0121985270490392</v>
+        <v>0.03497265220713738</v>
       </c>
       <c r="T4">
-        <v>0.0121985270490392</v>
+        <v>0.03497265220713737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H5">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I5">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J5">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N5">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q5">
-        <v>18.30240306777633</v>
+        <v>26.77967546121344</v>
       </c>
       <c r="R5">
-        <v>164.721627609987</v>
+        <v>241.017079150921</v>
       </c>
       <c r="S5">
-        <v>0.02862019463469295</v>
+        <v>0.04583312671099763</v>
       </c>
       <c r="T5">
-        <v>0.02862019463469295</v>
+        <v>0.04583312671099762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N6">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O6">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P6">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q6">
-        <v>5.880964359940667</v>
+        <v>6.547754389162335</v>
       </c>
       <c r="R6">
-        <v>52.92867923946601</v>
+        <v>58.92978950246101</v>
       </c>
       <c r="S6">
-        <v>0.009196297557096901</v>
+        <v>0.01120641125862882</v>
       </c>
       <c r="T6">
-        <v>0.009196297557096902</v>
+        <v>0.01120641125862882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q7">
         <v>8.130971388515</v>
@@ -883,10 +883,10 @@
         <v>73.17874249663501</v>
       </c>
       <c r="S7">
-        <v>0.01271472291625649</v>
+        <v>0.01391607013584092</v>
       </c>
       <c r="T7">
-        <v>0.01271472291625649</v>
+        <v>0.01391607013584092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N8">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O8">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P8">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q8">
-        <v>2.082353577925</v>
+        <v>3.172518025314667</v>
       </c>
       <c r="R8">
-        <v>18.741182201325</v>
+        <v>28.55266222783201</v>
       </c>
       <c r="S8">
-        <v>0.003256258999310935</v>
+        <v>0.005429730500572036</v>
       </c>
       <c r="T8">
-        <v>0.003256258999310935</v>
+        <v>0.005429730500572035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N9">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q9">
-        <v>4.885619752194334</v>
+        <v>4.157717858684333</v>
       </c>
       <c r="R9">
-        <v>43.97057776974901</v>
+        <v>37.419460728159</v>
       </c>
       <c r="S9">
-        <v>0.007639837659628738</v>
+        <v>0.007115889425981195</v>
       </c>
       <c r="T9">
-        <v>0.007639837659628738</v>
+        <v>0.007115889425981193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H10">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N10">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O10">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P10">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q10">
-        <v>33.67543782241933</v>
+        <v>19.29813788499789</v>
       </c>
       <c r="R10">
-        <v>303.078940401774</v>
+        <v>173.683240964981</v>
       </c>
       <c r="S10">
-        <v>0.05265961968584484</v>
+        <v>0.03302855556447935</v>
       </c>
       <c r="T10">
-        <v>0.05265961968584486</v>
+        <v>0.03302855556447934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H11">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q11">
-        <v>46.559374393585</v>
+        <v>23.96433917164834</v>
       </c>
       <c r="R11">
-        <v>419.034369542265</v>
+        <v>215.679052544835</v>
       </c>
       <c r="S11">
-        <v>0.07280674304239546</v>
+        <v>0.04101470891199939</v>
       </c>
       <c r="T11">
-        <v>0.07280674304239546</v>
+        <v>0.04101470891199937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H12">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N12">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O12">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P12">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q12">
-        <v>11.923923381575</v>
+        <v>9.350333970452445</v>
       </c>
       <c r="R12">
-        <v>107.315310434175</v>
+        <v>84.15300573407201</v>
       </c>
       <c r="S12">
-        <v>0.01864591260098966</v>
+        <v>0.01600299608852967</v>
       </c>
       <c r="T12">
-        <v>0.01864591260098966</v>
+        <v>0.01600299608852966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H13">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N13">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q13">
-        <v>27.97591927434567</v>
+        <v>12.25400461822656</v>
       </c>
       <c r="R13">
-        <v>251.783273469111</v>
+        <v>110.286041564039</v>
       </c>
       <c r="S13">
-        <v>0.04374705615165483</v>
+        <v>0.02097259719214233</v>
       </c>
       <c r="T13">
-        <v>0.04374705615165484</v>
+        <v>0.02097259719214233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H14">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I14">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J14">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N14">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O14">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P14">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q14">
-        <v>117.6712536016431</v>
+        <v>105.8078800202831</v>
       </c>
       <c r="R14">
-        <v>1059.041282414788</v>
+        <v>952.2709201825481</v>
       </c>
       <c r="S14">
-        <v>0.1840072130701091</v>
+        <v>0.1810890493805832</v>
       </c>
       <c r="T14">
-        <v>0.1840072130701092</v>
+        <v>0.1810890493805831</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H15">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I15">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J15">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>143.250945</v>
       </c>
       <c r="O15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q15">
-        <v>162.6912760776033</v>
+        <v>131.3917404336867</v>
       </c>
       <c r="R15">
-        <v>1464.22148469843</v>
+        <v>1182.52566390318</v>
       </c>
       <c r="S15">
-        <v>0.2544068103770205</v>
+        <v>0.2248755514904511</v>
       </c>
       <c r="T15">
-        <v>0.2544068103770206</v>
+        <v>0.224875551490451</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H16">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I16">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J16">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N16">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O16">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P16">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q16">
-        <v>41.66547201431666</v>
+        <v>51.26603513721956</v>
       </c>
       <c r="R16">
-        <v>374.98924812885</v>
+        <v>461.3943162349761</v>
       </c>
       <c r="S16">
-        <v>0.0651539535098314</v>
+        <v>0.0877412681052772</v>
       </c>
       <c r="T16">
-        <v>0.06515395350983143</v>
+        <v>0.08774126810527719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H17">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I17">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J17">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N17">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q17">
-        <v>97.75556620912023</v>
+        <v>67.18628803151245</v>
       </c>
       <c r="R17">
-        <v>879.8000958820821</v>
+        <v>604.676592283612</v>
       </c>
       <c r="S17">
-        <v>0.1528642616583765</v>
+        <v>0.1149886098153022</v>
       </c>
       <c r="T17">
-        <v>0.1528642616583765</v>
+        <v>0.1149886098153021</v>
       </c>
     </row>
   </sheetData>
